--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BECA9741-E9D7-43BF-8B0E-971BD7D35B9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716428DB-B85E-4AD4-A802-2F2C1A774665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>1С</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>ФИЛЕЙНЫЕ ПМ сос ц/о мгс 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -722,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,6 +2007,17 @@
         <v>114</v>
       </c>
     </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>1001300456787</v>
+      </c>
+      <c r="B116" s="1">
+        <v>1001300456787</v>
+      </c>
+      <c r="C116" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C114" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716428DB-B85E-4AD4-A802-2F2C1A774665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C459D5-1497-4D96-9222-239802167C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,12 +23,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>1С</t>
   </si>
@@ -376,6 +382,9 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может с/к с/н в/у 1/100_60с</t>
   </si>
 </sst>
 </file>
@@ -725,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2018,6 +2027,17 @@
         <v>115</v>
       </c>
     </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>1001202506453</v>
+      </c>
+      <c r="B117" s="1">
+        <v>1001202506453</v>
+      </c>
+      <c r="C117" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C114" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C459D5-1497-4D96-9222-239802167C53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C434A3B-1635-4C9C-A289-E1AB52C3AD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>1С</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>ЭКСТРА Папа может с/к с/н в/у 1/100_60с</t>
+  </si>
+  <si>
+    <t>МЯСНАЯ СО ШПИКОМ ПМ вар п/о 0.4кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -734,11 +737,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,6 +2041,17 @@
         <v>116</v>
       </c>
     </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>1001012637334</v>
+      </c>
+      <c r="B118" s="1">
+        <v>1001012637334</v>
+      </c>
+      <c r="C118" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C114" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C434A3B-1635-4C9C-A289-E1AB52C3AD4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A021AE-CEC1-4DE8-B0BE-E0FA4836DFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$119</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t>1С</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>МЯСНАЯ СО ШПИКОМ ПМ вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг 6шт.</t>
+  </si>
+  <si>
+    <t>заблокирован для ЛП</t>
+  </si>
+  <si>
+    <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.</t>
   </si>
 </sst>
 </file>
@@ -737,11 +746,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +759,7 @@
     <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1282,7 +1291,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1001060764993</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1001062505483</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1001062504117</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1001063145708</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1001060720614</v>
       </c>
@@ -1337,7 +1346,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1001062475707</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1001303636794</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1001303636793</v>
       </c>
@@ -1370,7 +1379,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1001063656967</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1001302596796</v>
       </c>
@@ -1392,7 +1401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1001302596795</v>
       </c>
@@ -1403,7 +1412,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1001205376221</v>
       </c>
@@ -1414,7 +1423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1001200756557</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1001201976454</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1001203146834</v>
       </c>
@@ -1447,7 +1456,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1001193115682</v>
       </c>
@@ -1456,6 +1465,9 @@
       </c>
       <c r="C64" t="s">
         <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,8 +2064,30 @@
         <v>117</v>
       </c>
     </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>1001025507255</v>
+      </c>
+      <c r="B119" s="1">
+        <v>1001025507255</v>
+      </c>
+      <c r="C119" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>1001203117382</v>
+      </c>
+      <c r="B120" s="1">
+        <v>1001203117382</v>
+      </c>
+      <c r="C120" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C114" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C119" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A021AE-CEC1-4DE8-B0BE-E0FA4836DFCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91638F36-214A-404F-85A8-41A62561F4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$120</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>1С</t>
   </si>
@@ -397,6 +397,9 @@
   </si>
   <si>
     <t>САЛЯМИ МЕЛКОЗЕРНЕНАЯ с/к в/у 1/120 8шт.</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
   </si>
 </sst>
 </file>
@@ -746,11 +749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,8 +2089,19 @@
         <v>120</v>
       </c>
     </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>1001022556837</v>
+      </c>
+      <c r="B121" s="1">
+        <v>1001022556837</v>
+      </c>
+      <c r="C121" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C119" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C120" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91638F36-214A-404F-85A8-41A62561F4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E751FB70-BAFE-43AC-8CE1-1DA489702276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
   <si>
     <t>1С</t>
   </si>
@@ -749,11 +749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,6 +2100,17 @@
         <v>121</v>
       </c>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>1001061973986</v>
+      </c>
+      <c r="B122" s="1">
+        <v>1001061973986</v>
+      </c>
+      <c r="C122" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C120" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E751FB70-BAFE-43AC-8CE1-1DA489702276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07D77E-F65F-4093-A551-B1E3836C5191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>1С</t>
   </si>
@@ -400,18 +400,29 @@
   </si>
   <si>
     <t>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к в/у_А</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,13 +471,15 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Arial10px" xfId="2" xr:uid="{C0A75BEE-14F2-4260-AF17-AC512850AE79}"/>
@@ -749,11 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,6 +2124,17 @@
         <v>46</v>
       </c>
     </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>1001061973582</v>
+      </c>
+      <c r="B123" s="3">
+        <v>1001061973582</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C120" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/NV_Poliakov_PRS/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV_Poliakov_PRS\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA07D77E-F65F-4093-A551-B1E3836C5191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9BA61B-FD81-43E1-8129-9387A8203900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>1С</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>АРОМАТНАЯ с/к в/у_А</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВЕЙЦАРСК. в/к с/н в/у 1/100*10</t>
+  </si>
+  <si>
+    <t>САН-РЕМО с/в с/н мгс 1/90 12шт.</t>
   </si>
 </sst>
 </file>
@@ -762,11 +768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2135,6 +2141,28 @@
         <v>122</v>
       </c>
     </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>1001214196459</v>
+      </c>
+      <c r="B124" s="1">
+        <v>1001214196459</v>
+      </c>
+      <c r="C124" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>1001205467107</v>
+      </c>
+      <c r="B125" s="1">
+        <v>1001205467107</v>
+      </c>
+      <c r="C125" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C120" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
